--- a/analysis/behavior/stats/raw/figure2.xlsx
+++ b/analysis/behavior/stats/raw/figure2.xlsx
@@ -606,12 +606,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>β=0.0033; 95% CI [-0.3869, 0.3936]; t(2052.0)=0.0167; p=0.99</t>
+          <t>β=0.7489; 95% CI [0.2987, 1.1992]; t(1374.0)=3.2629; p&lt;.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>β=1.3197; 95% CI [-0.0072, 2.6466]; t(2052.0)=1.9505; p=0.05</t>
+          <t>β=1.5007; 95% CI [0.6447, 2.3566]; t(1374.0)=3.4394; p&lt;.001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>β=0.0014; 95% CI [0.0011, 0.0018]; t(2052.0)=7.9552; p&lt;.0001</t>
+          <t>β=0.0004; 95% CI [-0.0001, 0.0009]; t(1374.0)=1.4531; p=0.15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>β=-0.0012; 95% CI [-0.0019, -0.0005]; t(2052.0)=-3.4857; p&lt;.001</t>
+          <t>β=-0.0008; 95% CI [-0.0017, 0.0001]; t(1374.0)=-1.8004; p=0.07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9920939748098777</v>
+        <v>0.9359055165788662</v>
       </c>
     </row>
   </sheetData>
